--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>741828.4754178767</v>
+        <v>817164.4107271888</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6110993.067254424</v>
+        <v>6110993.067254426</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>272.2741925178118</v>
+        <v>272.2741925178131</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8428862394539</v>
+        <v>146.842886239454</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -950,7 +952,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7944255145775</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>134.9994691657078</v>
       </c>
       <c r="H6" t="n">
         <v>89.59687541851115</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>149.1816830357536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.46084344268539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>199.7325946875371</v>
+        <v>303.5173063788875</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1221,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G9" t="n">
         <v>134.9994691657081</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>143.6484612441728</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1373,22 +1375,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>208.690255997874</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>201.66221878632</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>53.54449217333939</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>169.3656682115181</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>84.2229096522898</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.48046147214393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>57.91073356940661</v>
+        <v>146.8428862394539</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>188.2196394312111</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>78.78083674902116</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>20.95866062610961</v>
       </c>
       <c r="U19" t="n">
-        <v>277.8312030514733</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>12.27635063436634</v>
+        <v>57.92518451681134</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>14.57567088453452</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>20.95866062610969</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>188.219639431212</v>
       </c>
       <c r="H23" t="n">
-        <v>17.35112070699422</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2488,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>89.79171265358551</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>53.54735467376791</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>38.93487362168472</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,16 +2611,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>116.4266437941108</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.2532214802702</v>
       </c>
       <c r="H28" t="n">
-        <v>141.7614152959627</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>122.5339540603589</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>279.0516891092295</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.3866485609005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>371.0050721667901</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>236.7410560406738</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3193,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>164.9988490762007</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.35882079148004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>363.405585681205</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>168.1158122680963</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>23.38964045759758</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>131.5522128412696</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,13 +3511,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>120.6088074159607</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>32.97950884736154</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3597,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U39" t="n">
         <v>225.7871683969286</v>
@@ -3661,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3676,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>14.57567088453339</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>229.7965692041362</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>25.87859906451694</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>85.11239208128387</v>
+        <v>32.55354698821686</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3989,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>39.28325248493611</v>
+        <v>168.1158122680957</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>149.3991884271815</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>124.4272108043268</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4325,22 +4327,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989293</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013481</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D4" t="n">
         <v>772.5608581015648</v>
@@ -4477,61 +4479,61 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="5">
@@ -4565,22 +4567,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4598,16 +4600,16 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218343</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218343</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>666.2025176122982</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753375</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>148.7957966773202</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218343</v>
+        <v>831.0565485757129</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744046</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761603</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="F8" t="n">
-        <v>66.5121164321834</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.5121164321834</v>
@@ -4835,19 +4837,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F9" t="n">
         <v>312.3844025601599</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4942,10 +4944,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="D10" t="n">
-        <v>770.7703664058491</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>622.857272823456</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1032.06112435253</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>663.0986074121186</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>663.0986074121186</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>277.3103548138743</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>277.3103548138743</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>277.3103548138743</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392464</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>1418.660964416652</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
@@ -5124,7 +5126,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5151,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>363.5187033424295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C13" t="n">
-        <v>363.5187033424295</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D13" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L13" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U13" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V13" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W13" t="n">
-        <v>363.5187033424295</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X13" t="n">
-        <v>363.5187033424295</v>
+        <v>749.810573281298</v>
       </c>
       <c r="Y13" t="n">
-        <v>363.5187033424295</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1221.525483338121</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C14" t="n">
-        <v>852.5629663977095</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
-        <v>494.2972677909589</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5294,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.125323402243</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
         <v>765.1517452158131</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="D16" t="n">
         <v>772.5608581015648</v>
@@ -5425,61 +5427,61 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y16" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2345.167438673965</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.167438673965</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.167438673965</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686079</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064753</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080133</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986305</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372933</v>
@@ -5680,43 +5682,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T19" t="n">
-        <v>920.887005818185</v>
+        <v>899.7166415493873</v>
       </c>
       <c r="U19" t="n">
-        <v>640.249426978313</v>
+        <v>610.6137746750309</v>
       </c>
       <c r="V19" t="n">
-        <v>385.5649387724261</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W19" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X19" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y19" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1225.638517792182</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C20" t="n">
-        <v>1225.638517792182</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D20" t="n">
-        <v>867.3728191854311</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F20" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,16 +5764,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5780,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3313.205467433044</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U20" t="n">
-        <v>3059.67499070688</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V20" t="n">
-        <v>2728.612103363309</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W20" t="n">
-        <v>2375.843448093195</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X20" t="n">
-        <v>2002.377689832115</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y20" t="n">
-        <v>1612.238357856303</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218343</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218343</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218343</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696229</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="U22" t="n">
-        <v>631.7841389438286</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="V22" t="n">
-        <v>377.0996507379417</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="W22" t="n">
-        <v>87.6824807009811</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="X22" t="n">
-        <v>66.51211643218343</v>
+        <v>639.3706644025399</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.51211643218343</v>
+        <v>639.3706644025399</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2065.110222835252</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C23" t="n">
-        <v>1696.14770589484</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.882007288089</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E23" t="n">
-        <v>952.0937546898451</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F23" t="n">
-        <v>541.1078499002376</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G23" t="n">
-        <v>126.0353997452341</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329465</v>
@@ -5999,40 +6001,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W23" t="n">
-        <v>3215.315153136265</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X23" t="n">
-        <v>2841.849394875185</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y23" t="n">
-        <v>2451.710062899373</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="24">
@@ -6063,16 +6065,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="C25" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="D25" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="E25" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="F25" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="G25" t="n">
-        <v>2617.448119005311</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="H25" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="I25" t="n">
-        <v>2471.230932223169</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="J25" t="n">
-        <v>2483.053685760608</v>
+        <v>2483.05368576061</v>
       </c>
       <c r="K25" t="n">
-        <v>2581.364540028279</v>
+        <v>2581.36454002828</v>
       </c>
       <c r="L25" t="n">
-        <v>2737.074383950636</v>
+        <v>2737.074383950638</v>
       </c>
       <c r="M25" t="n">
-        <v>2904.506865249834</v>
+        <v>2904.506865249835</v>
       </c>
       <c r="N25" t="n">
-        <v>3075.815702279681</v>
+        <v>3075.815702279683</v>
       </c>
       <c r="O25" t="n">
-        <v>3213.734051497871</v>
+        <v>3213.734051497872</v>
       </c>
       <c r="P25" t="n">
-        <v>3312.685054250629</v>
+        <v>3312.685054250631</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S25" t="n">
-        <v>3234.907121959084</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T25" t="n">
-        <v>3013.14050652861</v>
+        <v>3103.839206178698</v>
       </c>
       <c r="U25" t="n">
-        <v>3013.14050652861</v>
+        <v>2814.736339304341</v>
       </c>
       <c r="V25" t="n">
-        <v>3013.14050652861</v>
+        <v>2760.648102260131</v>
       </c>
       <c r="W25" t="n">
-        <v>3013.14050652861</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="X25" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.23093222317</v>
       </c>
       <c r="Y25" t="n">
-        <v>2785.150955630592</v>
+        <v>2471.23093222317</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1969.42314369238</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1600.460626751969</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>1242.194928145218</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>856.4066755469739</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>445.4207707573664</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="V26" t="n">
-        <v>2748.494926768127</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="W26" t="n">
-        <v>2395.726271498012</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="X26" t="n">
-        <v>2395.726271498012</v>
+        <v>2746.162315732314</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.586939522201</v>
+        <v>2356.022983756502</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6302,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031473</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="C28" t="n">
-        <v>751.950822890278</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="D28" t="n">
-        <v>601.8341834779422</v>
+        <v>770.7703664058497</v>
       </c>
       <c r="E28" t="n">
-        <v>453.9210898955491</v>
+        <v>622.8572728234566</v>
       </c>
       <c r="F28" t="n">
-        <v>307.0311423976387</v>
+        <v>475.9673253255462</v>
       </c>
       <c r="G28" t="n">
-        <v>307.0311423976387</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="Y28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1672.191441142817</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C29" t="n">
-        <v>1548.419770374778</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D29" t="n">
-        <v>1190.154071768027</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E29" t="n">
-        <v>1190.154071768027</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F29" t="n">
-        <v>779.1681669784198</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
         <v>66.51211643218343</v>
@@ -6461,22 +6463,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
@@ -6491,22 +6493,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2788.565186649823</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2435.796531379709</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X29" t="n">
-        <v>2062.330773118629</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y29" t="n">
-        <v>1672.191441142817</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="30">
@@ -6531,10 +6533,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218343</v>
@@ -6543,19 +6545,19 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P30" t="n">
         <v>2407.411984886741</v>
@@ -6619,49 +6621,49 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K31" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L31" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M31" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N31" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O31" t="n">
-        <v>809.0152357068856</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P31" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q31" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R31" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="S31" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="T31" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757135</v>
       </c>
       <c r="U31" t="n">
-        <v>631.7841389438286</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V31" t="n">
-        <v>631.7841389438286</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W31" t="n">
-        <v>342.366968906868</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X31" t="n">
-        <v>114.3774180088506</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y31" t="n">
         <v>66.51211643218343</v>
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1238.038871968308</v>
+        <v>1418.660964416654</v>
       </c>
       <c r="C32" t="n">
-        <v>1238.038871968308</v>
+        <v>1049.698447476243</v>
       </c>
       <c r="D32" t="n">
-        <v>1238.038871968308</v>
+        <v>691.4327488694921</v>
       </c>
       <c r="E32" t="n">
-        <v>852.2506193700638</v>
+        <v>305.6444962712479</v>
       </c>
       <c r="F32" t="n">
-        <v>441.2647145804562</v>
+        <v>305.6444962712479</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>305.6444962712479</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U32" t="n">
-        <v>3072.075344883006</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V32" t="n">
-        <v>2741.012457539436</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W32" t="n">
-        <v>2388.243802269321</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.778044008242</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y32" t="n">
-        <v>1624.63871203243</v>
+        <v>1418.660964416654</v>
       </c>
     </row>
     <row r="33">
@@ -6768,28 +6770,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>826.5851666348717</v>
+        <v>2937.173702061324</v>
       </c>
       <c r="C34" t="n">
-        <v>657.6489837069648</v>
+        <v>2768.237519133417</v>
       </c>
       <c r="D34" t="n">
-        <v>507.5323442946291</v>
+        <v>2618.120879721082</v>
       </c>
       <c r="E34" t="n">
-        <v>359.619250712236</v>
+        <v>2618.120879721082</v>
       </c>
       <c r="F34" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223171</v>
       </c>
       <c r="J34" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760611</v>
       </c>
       <c r="K34" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028281</v>
       </c>
       <c r="L34" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950639</v>
       </c>
       <c r="M34" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249836</v>
       </c>
       <c r="N34" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279684</v>
       </c>
       <c r="O34" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497873</v>
       </c>
       <c r="P34" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250632</v>
       </c>
       <c r="Q34" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R34" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S34" t="n">
-        <v>920.8870058181849</v>
+        <v>3158.940317491798</v>
       </c>
       <c r="T34" t="n">
-        <v>920.8870058181849</v>
+        <v>2937.173702061324</v>
       </c>
       <c r="U34" t="n">
-        <v>920.8870058181849</v>
+        <v>2937.173702061324</v>
       </c>
       <c r="V34" t="n">
-        <v>920.8870058181849</v>
+        <v>2937.173702061324</v>
       </c>
       <c r="W34" t="n">
-        <v>920.8870058181849</v>
+        <v>2937.173702061324</v>
       </c>
       <c r="X34" t="n">
-        <v>920.8870058181849</v>
+        <v>2937.173702061324</v>
       </c>
       <c r="Y34" t="n">
-        <v>826.5851666348717</v>
+        <v>2937.173702061324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>2255.174438931364</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1886.211921990953</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1527.946223384202</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>1142.157970785958</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>731.1720659963505</v>
       </c>
       <c r="G35" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3155.791869823214</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3155.791869823214</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W35" t="n">
-        <v>3155.791869823214</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>2641.774278995486</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>700.0944266746548</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C37" t="n">
-        <v>531.1582437467479</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D37" t="n">
-        <v>531.1582437467479</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E37" t="n">
-        <v>383.2451501643548</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>236.3552026664444</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962291</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588485</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886961</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068855</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="T37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="U37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="V37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="W37" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="X37" t="n">
-        <v>920.8870058181849</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y37" t="n">
-        <v>700.0944266746548</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1712.341567565137</v>
+        <v>1204.726236768953</v>
       </c>
       <c r="C38" t="n">
-        <v>1343.379050624726</v>
+        <v>835.7637198285415</v>
       </c>
       <c r="D38" t="n">
-        <v>985.1133520179753</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E38" t="n">
-        <v>599.325099419731</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F38" t="n">
-        <v>188.3391946301235</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7196,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3292.293186409815</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>3038.762709683652</v>
       </c>
       <c r="V38" t="n">
-        <v>3215.315153136265</v>
+        <v>2707.699822340081</v>
       </c>
       <c r="W38" t="n">
-        <v>2862.546497866151</v>
+        <v>2354.931167069967</v>
       </c>
       <c r="X38" t="n">
-        <v>2489.080739605071</v>
+        <v>1981.465408808887</v>
       </c>
       <c r="Y38" t="n">
-        <v>2098.941407629259</v>
+        <v>1591.326076833075</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7254,10 +7256,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>2882.476632812247</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>2714.773796186966</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>2568.556609404824</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L40" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>920.8870058181849</v>
+        <v>3044.089480193525</v>
       </c>
       <c r="T40" t="n">
-        <v>920.8870058181849</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="U40" t="n">
-        <v>920.8870058181849</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="V40" t="n">
-        <v>920.8870058181849</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="W40" t="n">
-        <v>920.8870058181849</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="X40" t="n">
-        <v>920.8870058181849</v>
+        <v>3029.366580310158</v>
       </c>
       <c r="Y40" t="n">
-        <v>848.0708164780106</v>
+        <v>3029.366580310158</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1590.514489367197</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C41" t="n">
-        <v>1221.551972426786</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2862738200351</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E41" t="n">
-        <v>477.498021221791</v>
+        <v>709.6157678926356</v>
       </c>
       <c r="F41" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030281</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218241</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7424,37 +7426,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3299.465822554102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2740.71941966821</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X41" t="n">
-        <v>2367.25366140713</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y41" t="n">
-        <v>1977.114329431319</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7521,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>320.1870662708825</v>
+        <v>99.39448712735194</v>
       </c>
       <c r="C43" t="n">
-        <v>320.1870662708825</v>
+        <v>99.39448712735194</v>
       </c>
       <c r="D43" t="n">
-        <v>320.1870662708825</v>
+        <v>99.39448712735194</v>
       </c>
       <c r="E43" t="n">
-        <v>320.1870662708825</v>
+        <v>99.39448712735194</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T43" t="n">
-        <v>609.2899331452389</v>
+        <v>609.2899331452385</v>
       </c>
       <c r="U43" t="n">
-        <v>320.1870662708825</v>
+        <v>320.187066270882</v>
       </c>
       <c r="V43" t="n">
-        <v>320.1870662708825</v>
+        <v>320.187066270882</v>
       </c>
       <c r="W43" t="n">
-        <v>320.1870662708825</v>
+        <v>320.187066270882</v>
       </c>
       <c r="X43" t="n">
-        <v>320.1870662708825</v>
+        <v>320.187066270882</v>
       </c>
       <c r="Y43" t="n">
-        <v>320.1870662708825</v>
+        <v>99.39448712735194</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1672.191441142816</v>
+        <v>2175.400891308156</v>
       </c>
       <c r="C44" t="n">
-        <v>1303.228924202404</v>
+        <v>1806.438374367744</v>
       </c>
       <c r="D44" t="n">
-        <v>944.9632255956535</v>
+        <v>1448.172675760994</v>
       </c>
       <c r="E44" t="n">
-        <v>559.1749729974092</v>
+        <v>1062.38442316275</v>
       </c>
       <c r="F44" t="n">
-        <v>148.1890682078017</v>
+        <v>651.3985183731422</v>
       </c>
       <c r="G44" t="n">
-        <v>148.1890682078017</v>
+        <v>236.3260682181387</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
@@ -7661,13 +7663,13 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2788.565186649821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.796531379707</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X44" t="n">
-        <v>2062.330773118627</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y44" t="n">
-        <v>1672.191441142816</v>
+        <v>2562.000731372278</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,7 +7745,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.2489900899278</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C46" t="n">
-        <v>342.3128071620209</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D46" t="n">
-        <v>192.1961677496852</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E46" t="n">
-        <v>192.1961677496852</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962286</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K46" t="n">
-        <v>176.6457242372932</v>
+        <v>2581.364540028278</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588483</v>
+        <v>2904.506865249833</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886958</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068855</v>
+        <v>3213.73405149787</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596442</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181849</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181849</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181849</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="X46" t="n">
-        <v>692.8974549201675</v>
+        <v>2842.931782505266</v>
       </c>
       <c r="Y46" t="n">
-        <v>692.8974549201675</v>
+        <v>2622.139203361736</v>
       </c>
     </row>
   </sheetData>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110.4596491456688</v>
+        <v>110.4596491456675</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22708,7 +22710,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>1.772586778758495</v>
+        <v>1.772586778758381</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22838,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.4435131414761</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="6">
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>30.65029714618373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -22999,16 +23001,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>137.1238099094094</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>207.1434510541743</v>
+        <v>103.3587393628239</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,7 +23077,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23182,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.772586778758495</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>85.91750838944648</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,19 +23311,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>168.0688818921491</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>232.6673460322735</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23481,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>56.34398717751907</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>285.5081910261792</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.7574771839097</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>90.70473944880575</v>
+        <v>1.772586778758495</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23744,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>222.7020862222423</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>270.4601319683919</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23941,16 +23943,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>198.5902886500596</v>
       </c>
       <c r="U19" t="n">
-        <v>8.380635154139554</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24022,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>191.6416195052538</v>
+        <v>145.9927856228088</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>131.8582917620346</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>204.7509947629275</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>222.7020862222414</v>
       </c>
       <c r="H23" t="n">
-        <v>277.2566436803262</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24266,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
-        <v>99.97731267785639</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>198.5902886500601</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>371.9868520317688</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>211.3256146760241</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>1.772586778757983</v>
       </c>
       <c r="H28" t="n">
-        <v>2.993599618358104</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>242.7389377106487</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24731,13 +24733,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -24892,19 +24894,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>7.16014909638335</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.1980047911943</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>39.91665348666339</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>57.8667083466467</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24970,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>24.77017625524121</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.2258325606147</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>47.51613997224848</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25208,19 +25210,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>82.8793596908057</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>142.6361678014306</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25375,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776757</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25397,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>290.3129182374928</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>170.9384612922586</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>204.9732783916358</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.4966259053222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>64.81119518318425</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292496</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.30916272365889</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>60.30865594164737</v>
+        <v>112.8675010347144</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>255.3245119023844</v>
+        <v>126.4919521192247</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>30.43279175475575</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>20.99383721860447</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26080,7 +26082,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>806150.3945534368</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534365</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>806150.3945534364</v>
+        <v>806150.3945534367</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>806150.3945534365</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>806150.3945534367</v>
+        <v>806150.3945534364</v>
       </c>
     </row>
     <row r="16">
@@ -26311,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.026237187</v>
       </c>
       <c r="C2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="D2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="E2" t="n">
+        <v>345493.0262371866</v>
+      </c>
+      <c r="F2" t="n">
         <v>345493.0262371869</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>345493.0262371867</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>345493.0262371869</v>
       </c>
-      <c r="H2" t="n">
-        <v>345493.0262371867</v>
-      </c>
       <c r="I2" t="n">
-        <v>345493.0262371867</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="J2" t="n">
-        <v>345493.0262371867</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="K2" t="n">
         <v>345493.0262371869</v>
       </c>
       <c r="L2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371868</v>
       </c>
       <c r="M2" t="n">
-        <v>345493.026237187</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="N2" t="n">
-        <v>345493.0262371869</v>
+        <v>345493.0262371867</v>
       </c>
       <c r="O2" t="n">
         <v>345493.0262371869</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="D4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="H4" t="n">
         <v>584.6469890061232</v>
@@ -26442,10 +26444,10 @@
         <v>584.6469890061232</v>
       </c>
       <c r="K4" t="n">
+        <v>584.6469890061234</v>
+      </c>
+      <c r="L4" t="n">
         <v>584.6469890061232</v>
-      </c>
-      <c r="L4" t="n">
-        <v>584.646989006123</v>
       </c>
       <c r="M4" t="n">
         <v>584.6469890061232</v>
@@ -26454,7 +26456,7 @@
         <v>584.646989006123</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="P4" t="n">
         <v>584.646989006123</v>
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="F5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26488,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139333</v>
+      </c>
+      <c r="M5" t="n">
+        <v>74306.34056139331</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26524,19 @@
         <v>-1091770.307040805</v>
       </c>
       <c r="C6" t="n">
+        <v>236974.4386867873</v>
+      </c>
+      <c r="D6" t="n">
         <v>236974.4386867875</v>
       </c>
-      <c r="D6" t="n">
-        <v>236974.4386867874</v>
-      </c>
       <c r="E6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867872</v>
       </c>
       <c r="F6" t="n">
+        <v>270602.0386867874</v>
+      </c>
+      <c r="G6" t="n">
         <v>270602.0386867873</v>
-      </c>
-      <c r="G6" t="n">
-        <v>270602.0386867875</v>
       </c>
       <c r="H6" t="n">
         <v>270602.0386867872</v>
@@ -26543,19 +26545,19 @@
         <v>270602.0386867874</v>
       </c>
       <c r="J6" t="n">
-        <v>53070.8362895099</v>
+        <v>53070.83628950984</v>
       </c>
       <c r="K6" t="n">
         <v>270602.0386867874</v>
       </c>
       <c r="L6" t="n">
-        <v>270602.0386867875</v>
+        <v>270602.0386867874</v>
       </c>
       <c r="M6" t="n">
+        <v>270602.0386867873</v>
+      </c>
+      <c r="N6" t="n">
         <v>270602.0386867876</v>
-      </c>
-      <c r="N6" t="n">
-        <v>270602.0386867875</v>
       </c>
       <c r="O6" t="n">
         <v>270602.0386867875</v>
@@ -26753,22 +26755,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26796,40 +26798,40 @@
         <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="I4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32014,7 +32016,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.994981974642</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
         <v>473.099994678169</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32315,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32470,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32622,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32709,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32861,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32946,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.512347035315</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33098,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T29" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P31" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33418,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356356</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970241</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33570,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138789</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623184</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35662,7 +35664,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193724</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35726,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35963,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M22" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859626</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L25" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M25" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N25" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P25" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.670908060956</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K28" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L28" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M28" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N28" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O28" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P28" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K31" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L31" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M31" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N31" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O31" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P31" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525797</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K34" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L34" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M34" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O34" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P34" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340047</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966704</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M37" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N37" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O37" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P37" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K40" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O40" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P40" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M43" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923311</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M46" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
